--- a/biology/Zoologie/Cetancodonta/Cetancodonta.xlsx
+++ b/biology/Zoologie/Cetancodonta/Cetancodonta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cétancodontes sont un sous-ordre de mammifères cétartiodactyles, regroupant les cétacés (baleines, dauphins, etc.) et leurs plus proches parents vivants, les hippopotames. Il est défini par Waddell 'et al.' (1999)[2] comme un  groupe-couronne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cétancodontes sont un sous-ordre de mammifères cétartiodactyles, regroupant les cétacés (baleines, dauphins, etc.) et leurs plus proches parents vivants, les hippopotames. Il est défini par Waddell 'et al.' (1999) comme un  groupe-couronne.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce clade regroupe toutes les espèces descendant de l'ancêtre commun le plus récent d'Hippopotamus amphibius et de Tursiops truncatus[3]. Le groupe élargi aux formes fossiles basales est appelé Cetancodontamorpha.
-Il s'agit d'un sous-groupe des Cetartiodactyla (clade qui inclut également les porcs et les ruminants). Les analyses génétiques montrent que les cétacés ont émergé parmi des Cétartiodactyles, ce qui fait des Artiodactyles (ongulés à doigts pairs – en anglais even-toed ungulate) un groupe paraphylétique[4].
-Ce terme est synonyme de Whippomorpha, mot-valise mélange d'anglais (wh[ale] + hippo[potamus]) et de grec (μορφή, morphē = forme). On a proposé de le renommer Cetancodonta[3], mais Whippomorpha — bien que le suffixe -morpha soit inadapté à la description d'un groupe-couronne — bénéficierait de l'antériorité[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce clade regroupe toutes les espèces descendant de l'ancêtre commun le plus récent d'Hippopotamus amphibius et de Tursiops truncatus. Le groupe élargi aux formes fossiles basales est appelé Cetancodontamorpha.
+Il s'agit d'un sous-groupe des Cetartiodactyla (clade qui inclut également les porcs et les ruminants). Les analyses génétiques montrent que les cétacés ont émergé parmi des Cétartiodactyles, ce qui fait des Artiodactyles (ongulés à doigts pairs – en anglais even-toed ungulate) un groupe paraphylétique.
+Ce terme est synonyme de Whippomorpha, mot-valise mélange d'anglais (wh[ale] + hippo[potamus]) et de grec (μορφή, morphē = forme). On a proposé de le renommer Cetancodonta, mais Whippomorpha — bien que le suffixe -morpha soit inadapté à la description d'un groupe-couronne — bénéficierait de l'antériorité. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés)[6],[7],[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles des Cétartiodactyles actuels (Cétacés non développés) :
 </t>
         </is>
       </c>
